--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +602,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -635,17 +635,17 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>836.76</v>
+        <v>786.76</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9163.24</v>
+        <v>9213.24</v>
       </c>
       <c r="F2" s="7">
-        <v>849.4</v>
+        <v>899.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +685,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
@@ -553,7 +553,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +670,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B4" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -717,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +817,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -829,10 +828,8 @@
       <c r="C3" s="8">
         <v>42036</v>
       </c>
-      <c r="D3" s="8">
-        <v>42036</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="7">
         <v>836.76</v>
       </c>
@@ -843,7 +840,7 @@
         <v>50.96</v>
       </c>
       <c r="I3" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
@@ -852,7 +849,7 @@
         <v>987.72</v>
       </c>
       <c r="L3" s="7">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -860,12 +857,7 @@
       <c r="N3" s="7">
         <v>0</v>
       </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -892,7 +884,6 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -917,13 +908,13 @@
         <v>38.32</v>
       </c>
       <c r="I5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -934,11 +925,8 @@
       <c r="N5" s="7">
         <v>0</v>
       </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
       <c r="P5" s="7">
-        <v>987.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -963,13 +951,13 @@
         <v>93.39</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -980,11 +968,8 @@
       <c r="N6" s="7">
         <v>0</v>
       </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
       <c r="P6" s="7">
-        <v>887.72</v>
+        <v>987.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1026,9 +1011,6 @@
       <c r="N7" s="7">
         <v>0</v>
       </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
       <c r="P7" s="7">
         <v>887.72</v>
       </c>
@@ -1072,9 +1054,6 @@
       <c r="N8" s="7">
         <v>0</v>
       </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
       <c r="P8" s="7">
         <v>887.72</v>
       </c>
@@ -1118,9 +1097,6 @@
       <c r="N9" s="7">
         <v>0</v>
       </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
       <c r="P9" s="7">
         <v>887.72</v>
       </c>
@@ -1164,9 +1140,6 @@
       <c r="N10" s="7">
         <v>0</v>
       </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
       <c r="P10" s="7">
         <v>887.72</v>
       </c>
@@ -1210,9 +1183,6 @@
       <c r="N11" s="7">
         <v>0</v>
       </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
       <c r="P11" s="7">
         <v>887.72</v>
       </c>
@@ -1256,9 +1226,6 @@
       <c r="N12" s="7">
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
       <c r="P12" s="7">
         <v>887.72</v>
       </c>
@@ -1302,9 +1269,6 @@
       <c r="N13" s="7">
         <v>0</v>
       </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
       <c r="P13" s="7">
         <v>887.72</v>
       </c>
@@ -1348,9 +1312,6 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
         <v>887.72</v>
       </c>
@@ -1392,9 +1353,6 @@
         <v>0</v>
       </c>
       <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
         <v>0</v>
       </c>
       <c r="P15" s="7">
@@ -1412,7 +1370,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:XFD4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1422,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>112</v>
+        <v>6350</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1490,15 +1448,15 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="10">
-        <v>9163.24</v>
+      <c r="J2" s="9">
+        <v>10000</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>110</v>
+        <v>6354</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1510,10 +1468,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="7">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="F3" s="7">
-        <v>836.76</v>
+        <v>786.76</v>
       </c>
       <c r="G3" s="7">
         <v>50.96</v>
@@ -1524,15 +1482,15 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="10">
-        <v>4163.24</v>
+      <c r="J3" s="7">
+        <v>0</v>
       </c>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +635,7 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>786.76</v>
+        <v>836.76</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
@@ -645,7 +645,7 @@
         <v>9213.24</v>
       </c>
       <c r="F2" s="7">
-        <v>899.4</v>
+        <v>849.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>987.72</v>
+        <v>937.72</v>
       </c>
       <c r="L3" s="7">
         <v>937.72</v>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,13 +1471,13 @@
         <v>937.72</v>
       </c>
       <c r="F3" s="7">
-        <v>786.76</v>
+        <v>836.76</v>
       </c>
       <c r="G3" s="7">
         <v>50.96</v>
       </c>
       <c r="H3" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7">
         <v>0</v>

--- a/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/3023-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-SPEDUEDATE-FEE-%APRAMT-Regular-CASH-Newcreateloan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -595,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,12 +736,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -781,17 +782,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -817,8 +819,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -854,12 +857,13 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -884,9 +888,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -922,14 +927,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -965,14 +971,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>987.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1008,14 +1015,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1051,14 +1059,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1094,14 +1103,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1137,14 +1147,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1180,14 +1191,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1223,14 +1235,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1266,14 +1279,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1309,14 +1323,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1352,10 +1367,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>796.29</v>
       </c>
     </row>
